--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/TVbooks_books.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/TVbooks_books.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg135650</t>
@@ -42,7 +42,7 @@
     <t>arg135553</t>
   </si>
   <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
   </si>
   <si>
     <t>arg339484</t>
@@ -51,16 +51,16 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg218503</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
   </si>
   <si>
     <t>arg135648</t>
@@ -69,19 +69,19 @@
     <t>arg585714</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>arg497712</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
   </si>
   <si>
     <t>arg213472</t>
   </si>
   <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
   </si>
   <si>
     <t>arg135637</t>
@@ -90,25 +90,25 @@
     <t>arg345723</t>
   </si>
   <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg161579</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arg223675</t>
@@ -117,7 +117,7 @@
     <t>arg135922</t>
   </si>
   <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>or bes</t>
@@ -132,16 +132,16 @@
     <t>&gt; so books r da best &lt;br/&gt; i cant sleep if i wont read a chapter frm any novel each day &lt;br/&gt; bt actually sometimes i feel reading books all day becomes boring (in schools textbooks nd at home novels) so only sometimes i watch tv nd dat 2 news channels &lt;br/&gt; hence by reading books i can even pass my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>arg213296</t>
   </si>
   <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg317750</t>
@@ -150,31 +150,31 @@
     <t>arg213555</t>
   </si>
   <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arg135702</t>
   </si>
   <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
   </si>
   <si>
     <t>arg136716</t>
   </si>
   <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>arg273350</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>tter t</t>
@@ -189,10 +189,10 @@
     <t>.</t>
   </si>
   <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>day b</t>
@@ -207,10 +207,10 @@
     <t>boring (in schools textbooks nd at home novels) so only sometimes i watch tv nd dat 2 news channels &lt;br/&gt; hence by reading books i can even pass my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>ooks l</t>
@@ -225,10 +225,10 @@
     <t>ory books , fairy tales, ghost stories etc these books help us in bringing imaginary power in us . In TV only some points are explained and sometimes we cant remember it easily but in books if we forget anything we can now and then read it .At last I only want to tell that books are much and much better than TV .</t>
   </si>
   <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>veryth</t>
@@ -243,34 +243,34 @@
     <t>done for you. With books you can imagine the characters looks and the setting with your own little creativity in it. &lt;br/&gt; Plus you can take books anywhere and everywhere without disrupting anyone.</t>
   </si>
   <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
   </si>
   <si>
     <t>arg345719</t>
   </si>
   <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
   </si>
   <si>
     <t>arg663779</t>
   </si>
   <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
   </si>
   <si>
     <t>ed on</t>
@@ -285,31 +285,31 @@
     <t>arg135560</t>
   </si>
   <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>arg569496</t>
   </si>
   <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>nk boo</t>
@@ -324,16 +324,16 @@
     <t>better because you learn more from books.</t>
   </si>
   <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
   </si>
   <si>
     <t>arg135647</t>
   </si>
   <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
   </si>
   <si>
     <t>n mark</t>
@@ -348,61 +348,61 @@
     <t>in capitals. That clearly proves that books are much better than TV because it TV rots the brain.</t>
   </si>
   <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>arg213294</t>
   </si>
   <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>n..?</t>
   </si>
   <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>your</t>
@@ -417,106 +417,106 @@
     <t>ation improves and It helps you to Improve reading, grammar, and it improves your writing skills!!! &lt;br/&gt; Also I want to say I HATE commercials!!! &lt;br/&gt; I hate Sponge bob!!! I would say PBS Kids, history channel, and the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>I have</t>
@@ -528,19 +528,19 @@
     <t>rther explain..?</t>
   </si>
   <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
   </si>
   <si>
     <t>a tv</t>
@@ -555,40 +555,40 @@
     <t>e &lt;br/&gt; books can help you learn &lt;br/&gt; a lot of the stuff on tv is either violent or not right for kids &lt;br/&gt; so books are well better</t>
   </si>
   <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
   </si>
   <si>
     <t>many</t>
@@ -603,25 +603,25 @@
     <t>ation marks and in capitals. That clearly proves that books are much better than TV because it TV rots the brain.</t>
   </si>
   <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>watch</t>
@@ -636,22 +636,22 @@
     <t>thank book are better because you learn more from books.</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>channe</t>
@@ -663,40 +663,40 @@
     <t>the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>even</t>
@@ -711,16 +711,16 @@
     <t>e my speaking skills</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>&lt;br/&gt;</t>
@@ -735,7 +735,7 @@
     <t>by reading books i can even pass my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>to my</t>
@@ -750,16 +750,16 @@
     <t>places, paradise, and even the kitchen sink. They change your perspective on life and often give the reader a sense of relativity. Television is like a drug. It's as bad as nicotine. Fahrenheit 451, the Night Circus, The Secret Garden, Inkheart... Do I have to further explain..?</t>
   </si>
   <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>se you</t>
@@ -774,37 +774,37 @@
     <t>more from books.</t>
   </si>
   <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>etter!</t>
@@ -816,19 +816,19 @@
     <t>OFL!</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>your o</t>
@@ -843,16 +843,16 @@
     <t>tle creativity in it. &lt;br/&gt; Plus you can take books anywhere and everywhere without disrupting anyone.</t>
   </si>
   <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>not go</t>
@@ -864,49 +864,49 @@
     <t>most parents don't care what there children watch and I thank book are better because you learn more from books.</t>
   </si>
   <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
-  </si>
-  <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
+  </si>
+  <si>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>forget</t>
@@ -918,10 +918,10 @@
     <t>ing we can now and then read it .At last I only want to tell that books are much and much better than TV .</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>adise,</t>
@@ -933,10 +933,10 @@
     <t>ven the kitchen sink. They change your perspective on life and often give the reader a sense of relativity. Television is like a drug. It's as bad as nicotine. Fahrenheit 451, the Night Circus, The Secret Garden, Inkheart... Do I have to further explain..?</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>so</t>
@@ -948,19 +948,19 @@
     <t>ks r da best &lt;br/&gt; i cant sleep if i wont read a chapter frm any novel each day &lt;br/&gt; bt actually sometimes i feel reading books all day becomes boring (in schools textbooks nd at home novels) so only sometimes i watch tv nd dat 2 news channels &lt;br/&gt; hence by reading books i can even pass my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>spell</t>
@@ -972,19 +972,19 @@
     <t>br/&gt; 4. Reading books a lot can help you write better. &lt;br/&gt; 5. Reading books teaches you to read. Watching TV. doesn't</t>
   </si>
   <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>d!</t>
   </si>
   <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>ls</t>
@@ -996,16 +996,16 @@
     <t>/&gt; hence by reading books i can even pass my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>ke a d</t>
@@ -1020,7 +1020,7 @@
     <t>t's as bad as nicotine. Fahrenheit 451, the Night Circus, The Secret Garden, Inkheart... Do I have to further explain..?</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>ing bo</t>
@@ -1035,16 +1035,16 @@
     <t>lot can help you write better. &lt;br/&gt; 5. Reading books teaches you to read. Watching TV. doesn't</t>
   </si>
   <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>ks and</t>
@@ -1056,10 +1056,10 @@
     <t>etting with your own little creativity in it. &lt;br/&gt; Plus you can take books anywhere and everywhere without disrupting anyone.</t>
   </si>
   <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>0510/B</t>
@@ -1071,10 +1071,10 @@
     <t>Bad.htm</t>
   </si>
   <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>crease</t>
@@ -1086,46 +1086,46 @@
     <t>nes imagination and creativity as they have to imagine things in the book for themselves. &lt;br/&gt; I am not completely against TV but I do believe that TV is very bad in large amounts and books are very good for people &lt;br/&gt; http://www.echoworld.com/B05/B0510/B0510TVBad.htm</t>
   </si>
   <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
-  </si>
-  <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
-  </si>
-  <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0,182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
+  </si>
+  <si>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29,11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>n watc</t>
@@ -1140,16 +1140,16 @@
     <t>v. :-)</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>mprove</t>
@@ -1164,28 +1164,28 @@
     <t>ng, grammar, and it improves your writing skills!!! &lt;br/&gt; Also I want to say I HATE commercials!!! &lt;br/&gt; I hate Sponge bob!!! I would say PBS Kids, history channel, and the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>childr</t>
@@ -1200,7 +1200,7 @@
     <t>ch and I thank book are better because you learn more from books.</t>
   </si>
   <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
   </si>
   <si>
     <t>ding a</t>
@@ -1215,7 +1215,7 @@
     <t>is not necessary to use electricity.</t>
   </si>
   <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0,463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6,13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>can ev</t>
@@ -1227,34 +1227,34 @@
     <t>s my time nd even improve my speaking skills</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33,268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38,11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>/www.e</t>
@@ -1269,46 +1269,46 @@
     <t>ld.com/B05/B0510/B0510TVBad.htm</t>
   </si>
   <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
-  </si>
-  <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0,104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0,156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0,121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
+  </si>
+  <si>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43,5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71,6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5,5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
+  </si>
+  <si>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86,22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0,25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>histor</t>
@@ -1323,10 +1323,10 @@
     <t>nel, and the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0,188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0,275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36,19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
+  </si>
+  <si>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79,4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>an hel</t>
@@ -1341,16 +1341,16 @@
     <t>with spelling. &lt;br/&gt; 4. Reading books a lot can help you write better. &lt;br/&gt; 5. Reading books teaches you to read. Watching TV. doesn't</t>
   </si>
   <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0,106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0,71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0,104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0,273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55,11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
+  </si>
+  <si>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5,14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
+  </si>
+  <si>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58,19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
+  </si>
+  <si>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55,16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
   </si>
   <si>
     <t>ments.</t>
